--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA587236-0D3F-4763-BA1F-DBCE74EF1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A155D8DF-EDBB-4DDA-97F3-1051CF85D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>SealSword23</t>
+  </si>
+  <si>
+    <t>SealSword24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSword25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신물 요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -286,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -636,12 +651,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1229,6 +1244,52 @@
         <v>94</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A155D8DF-EDBB-4DDA-97F3-1051CF85D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA5DAC-7EC6-4378-A8E7-7E6AB41A2562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -124,36 +124,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특급 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SealSword20</t>
   </si>
   <si>
     <t>SealSword21</t>
   </si>
   <si>
-    <t>요물 요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SealSword22</t>
   </si>
   <si>
@@ -168,7 +144,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신물 요도</t>
+    <t>RewardType0</t>
+  </si>
+  <si>
+    <t>RewardValue0</t>
+  </si>
+  <si>
+    <t>RewardType1</t>
+  </si>
+  <si>
+    <t>RewardValue1</t>
+  </si>
+  <si>
+    <t>CollectionEffectType</t>
+  </si>
+  <si>
+    <t>CollectionEffectValue</t>
+  </si>
+  <si>
+    <t>하급 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물 요도 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물 요도 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물 요도 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신물 요도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신물 요도 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,12 +745,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,9 +761,10 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -691,8 +786,26 @@
       <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -703,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
@@ -714,8 +827,26 @@
       <c r="G2" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>62</v>
+      </c>
+      <c r="M2" s="7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -726,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -737,8 +868,26 @@
       <c r="G3" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>62</v>
+      </c>
+      <c r="M3" s="7">
+        <v>107500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -749,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -760,8 +909,26 @@
       <c r="G4" s="7">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>62</v>
+      </c>
+      <c r="M4" s="7">
+        <v>115000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -772,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -783,8 +950,26 @@
       <c r="G5" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>62</v>
+      </c>
+      <c r="M5" s="7">
+        <v>122500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -795,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -806,8 +991,26 @@
       <c r="G6" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>62</v>
+      </c>
+      <c r="M6" s="7">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -818,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -829,8 +1032,26 @@
       <c r="G7" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>62</v>
+      </c>
+      <c r="M7" s="7">
+        <v>140000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -841,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -852,8 +1073,26 @@
       <c r="G8" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>62</v>
+      </c>
+      <c r="M8" s="7">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -864,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -875,8 +1114,26 @@
       <c r="G9" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>62</v>
+      </c>
+      <c r="M9" s="7">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -887,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -898,8 +1155,26 @@
       <c r="G10" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>62</v>
+      </c>
+      <c r="M10" s="7">
+        <v>170000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -910,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -921,8 +1196,26 @@
       <c r="G11" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -933,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -944,8 +1237,26 @@
       <c r="G12" s="7">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>62</v>
+      </c>
+      <c r="M12" s="7">
+        <v>190000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -956,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -967,8 +1278,26 @@
       <c r="G13" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>62</v>
+      </c>
+      <c r="M13" s="7">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -979,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -990,8 +1319,26 @@
       <c r="G14" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5</v>
+      </c>
+      <c r="L14" s="7">
+        <v>62</v>
+      </c>
+      <c r="M14" s="7">
+        <v>480000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1002,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
@@ -1013,8 +1360,26 @@
       <c r="G15" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5</v>
+      </c>
+      <c r="L15" s="7">
+        <v>62</v>
+      </c>
+      <c r="M15" s="7">
+        <v>520000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1025,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
@@ -1036,8 +1401,26 @@
       <c r="G16" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>62</v>
+      </c>
+      <c r="M16" s="7">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7">
         <v>2</v>
@@ -1059,8 +1442,26 @@
       <c r="G17" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5</v>
+      </c>
+      <c r="L17" s="7">
+        <v>62</v>
+      </c>
+      <c r="M17" s="7">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1071,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1082,8 +1483,26 @@
       <c r="G18" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K18" s="7">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <v>62</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1200000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1094,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
@@ -1105,8 +1524,26 @@
       <c r="G19" s="7">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8</v>
+      </c>
+      <c r="J19" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K19" s="7">
+        <v>8</v>
+      </c>
+      <c r="L19" s="7">
+        <v>62</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1600000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1117,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
@@ -1128,8 +1565,26 @@
       <c r="G20" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8</v>
+      </c>
+      <c r="J20" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7">
+        <v>62</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1140,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -1151,19 +1606,37 @@
       <c r="G21" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K21" s="7">
+        <v>8</v>
+      </c>
+      <c r="L21" s="7">
+        <v>62</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
@@ -1174,19 +1647,37 @@
       <c r="G22" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K22" s="7">
+        <v>9</v>
+      </c>
+      <c r="L22" s="7">
+        <v>62</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6400000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>
@@ -1197,19 +1688,37 @@
       <c r="G23" s="7">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9</v>
+      </c>
+      <c r="J23" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K23" s="7">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7">
+        <v>62</v>
+      </c>
+      <c r="M23" s="7">
+        <v>9200000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -1220,19 +1729,37 @@
       <c r="G24" s="7">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K24" s="7">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7">
+        <v>62</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12400000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
@@ -1243,19 +1770,37 @@
       <c r="G25" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9</v>
+      </c>
+      <c r="J25" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K25" s="7">
+        <v>9</v>
+      </c>
+      <c r="L25" s="7">
+        <v>62</v>
+      </c>
+      <c r="M25" s="7">
+        <v>16400000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E26" s="7">
         <v>2</v>
@@ -1266,19 +1811,37 @@
       <c r="G26" s="7">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K26" s="7">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7">
+        <v>62</v>
+      </c>
+      <c r="M26" s="7">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11">
         <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
@@ -1288,6 +1851,24 @@
       </c>
       <c r="G27" s="7">
         <v>144</v>
+      </c>
+      <c r="H27" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10</v>
+      </c>
+      <c r="L27" s="7">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>50000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA5DAC-7EC6-4378-A8E7-7E6AB41A2562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A28BC1-6300-43F9-8DF8-288F243519A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -264,6 +264,18 @@
   <si>
     <t>신물 요도 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSword26</t>
+  </si>
+  <si>
+    <t>신물 요도 2</t>
+  </si>
+  <si>
+    <t>SealSword27</t>
+  </si>
+  <si>
+    <t>신물 요도 1</t>
   </si>
 </sst>
 </file>
@@ -745,12 +757,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1871,6 +1883,88 @@
         <v>50000000000</v>
       </c>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>145</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10</v>
+      </c>
+      <c r="J28" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K28" s="7">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7">
+        <v>62</v>
+      </c>
+      <c r="M28" s="7">
+        <v>80000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="11">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I29" s="7">
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7">
+        <v>62</v>
+      </c>
+      <c r="M29" s="7">
+        <v>120000000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A28BC1-6300-43F9-8DF8-288F243519A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704306E1-4FF9-4845-8D26-C7D2E9A836AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>신물 요도 1</t>
+  </si>
+  <si>
+    <t>SealSword28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영물 요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -757,12 +765,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1965,6 +1973,47 @@
         <v>120000000000</v>
       </c>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="11">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>179</v>
+      </c>
+      <c r="H30" s="7">
+        <v>9028</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12</v>
+      </c>
+      <c r="J30" s="7">
+        <v>9028</v>
+      </c>
+      <c r="K30" s="7">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7">
+        <v>62</v>
+      </c>
+      <c r="M30" s="7">
+        <v>150000000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SealSword.xlsx
+++ b/Assets/06.Table/SealSword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704306E1-4FF9-4845-8D26-C7D2E9A836AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8F6EC-5CBB-4A58-98EA-DA84D9BD90D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSword" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>영물 요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSwordExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +294,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +454,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,12 +775,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,10 +791,10 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -865,8 +878,11 @@
       <c r="M2" s="7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -906,8 +922,11 @@
       <c r="M3" s="7">
         <v>107500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -947,8 +966,11 @@
       <c r="M4" s="7">
         <v>115000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -988,8 +1010,11 @@
       <c r="M5" s="7">
         <v>122500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1029,8 +1054,11 @@
       <c r="M6" s="7">
         <v>130000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1070,8 +1098,11 @@
       <c r="M7" s="7">
         <v>140000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1111,8 +1142,11 @@
       <c r="M8" s="7">
         <v>150000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1152,8 +1186,11 @@
       <c r="M9" s="7">
         <v>160000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1193,8 +1230,11 @@
       <c r="M10" s="7">
         <v>170000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1234,8 +1274,11 @@
       <c r="M11" s="7">
         <v>180000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1275,8 +1318,11 @@
       <c r="M12" s="7">
         <v>190000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1316,8 +1362,11 @@
       <c r="M13" s="7">
         <v>220000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1357,8 +1406,11 @@
       <c r="M14" s="7">
         <v>480000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1398,8 +1450,11 @@
       <c r="M15" s="7">
         <v>520000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1439,8 +1494,11 @@
       <c r="M16" s="7">
         <v>560000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1480,8 +1538,11 @@
       <c r="M17" s="7">
         <v>600000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1521,8 +1582,11 @@
       <c r="M18" s="7">
         <v>1200000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1562,8 +1626,12 @@
       <c r="M19" s="7">
         <v>1600000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="12">
+        <f>N18*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -1603,8 +1671,12 @@
       <c r="M20" s="7">
         <v>2000000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="12">
+        <f t="shared" ref="N20:N30" si="0">N19*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -1644,8 +1716,12 @@
       <c r="M21" s="7">
         <v>2400000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -1685,8 +1761,12 @@
       <c r="M22" s="7">
         <v>6400000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1726,8 +1806,12 @@
       <c r="M23" s="7">
         <v>9200000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1767,8 +1851,12 @@
       <c r="M24" s="7">
         <v>12400000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1808,8 +1896,12 @@
       <c r="M25" s="7">
         <v>16400000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="12">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -1849,8 +1941,12 @@
       <c r="M26" s="7">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="12">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1890,8 +1986,12 @@
       <c r="M27" s="7">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="12">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1931,8 +2031,12 @@
       <c r="M28" s="7">
         <v>80000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="12">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1972,8 +2076,12 @@
       <c r="M29" s="7">
         <v>120000000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="12">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -2012,6 +2120,10 @@
       </c>
       <c r="M30" s="7">
         <v>150000000000</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
     </row>
   </sheetData>
